--- a/ege25/ответы25.xlsx
+++ b/ege25/ответы25.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Арсений\PycharmProjects\leletko1\ege25\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -17093,7 +17098,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -17320,6 +17325,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -17367,7 +17375,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17402,7 +17410,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17613,11 +17621,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC603"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE144" sqref="AE144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="38" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="34" hidden="1" customWidth="1"/>
@@ -17650,7 +17658,7 @@
     <col min="29" max="29" width="54.7109375" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17739,7 +17747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -17828,7 +17836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -17917,7 +17925,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -18006,7 +18014,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -18095,7 +18103,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -18184,7 +18192,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="108" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -18273,7 +18281,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -18362,7 +18370,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -18451,7 +18459,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -18540,7 +18548,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -18629,7 +18637,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -18718,7 +18726,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -18807,7 +18815,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -18896,7 +18904,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -18985,7 +18993,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="108" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -19074,7 +19082,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -19163,7 +19171,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -19252,7 +19260,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -19341,7 +19349,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="108" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -19430,7 +19438,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -19519,7 +19527,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -19608,7 +19616,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -19697,7 +19705,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -19786,7 +19794,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -19875,7 +19883,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -19964,7 +19972,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -20053,7 +20061,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -20142,7 +20150,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -20231,7 +20239,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -20320,7 +20328,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -20409,7 +20417,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -20498,7 +20506,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -20587,7 +20595,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -20676,7 +20684,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -20765,7 +20773,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -20854,7 +20862,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -20943,7 +20951,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -21032,7 +21040,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -21121,7 +21129,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -21210,7 +21218,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -21299,7 +21307,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -21388,7 +21396,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -21477,7 +21485,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -21566,7 +21574,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -21655,7 +21663,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -21744,7 +21752,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -21833,7 +21841,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -21922,7 +21930,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -22011,7 +22019,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -22100,7 +22108,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -22189,7 +22197,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -22278,7 +22286,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -22367,7 +22375,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -22456,7 +22464,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -22545,7 +22553,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -22634,7 +22642,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -22723,7 +22731,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -22812,7 +22820,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -22901,7 +22909,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -22990,7 +22998,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -23079,7 +23087,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -23168,7 +23176,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -23257,7 +23265,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -23346,7 +23354,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -23435,7 +23443,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -23524,7 +23532,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -23613,7 +23621,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -23702,7 +23710,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -23791,7 +23799,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -23880,7 +23888,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -23969,7 +23977,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -24058,7 +24066,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -24147,7 +24155,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -24236,7 +24244,7 @@
         <v>4953</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -24325,7 +24333,7 @@
         <v>22567</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -24414,7 +24422,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -24503,7 +24511,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="108" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -24592,7 +24600,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -24681,7 +24689,7 @@
         <v>17984</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -24770,7 +24778,7 @@
         <v>255203</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -24859,7 +24867,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -24946,7 +24954,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="252" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -25033,7 +25041,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -25120,7 +25128,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="85" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -25207,7 +25215,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="86" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -25294,7 +25302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -25381,7 +25389,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -25468,7 +25476,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -25555,7 +25563,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>89</v>
       </c>
@@ -25642,7 +25650,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -25727,7 +25735,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -25812,7 +25820,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="93" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>92</v>
       </c>
@@ -25897,7 +25905,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>93</v>
       </c>
@@ -25982,7 +25990,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="95" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -26067,7 +26075,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="96" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>95</v>
       </c>
@@ -26152,7 +26160,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="97" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -26237,7 +26245,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="98" spans="1:29" ht="108" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>97</v>
       </c>
@@ -26322,7 +26330,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="99" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -26407,7 +26415,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="100" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -26492,7 +26500,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="101" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>100</v>
       </c>
@@ -26577,7 +26585,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="102" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>101</v>
       </c>
@@ -26662,7 +26670,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="103" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>102</v>
       </c>
@@ -26747,7 +26755,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="104" spans="1:29" ht="198" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>103</v>
       </c>
@@ -26832,7 +26840,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="105" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>104</v>
       </c>
@@ -26917,7 +26925,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="106" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>105</v>
       </c>
@@ -26999,7 +27007,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="107" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>106</v>
       </c>
@@ -27081,7 +27089,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="108" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>107</v>
       </c>
@@ -27163,7 +27171,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="109" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>108</v>
       </c>
@@ -27245,7 +27253,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="110" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>109</v>
       </c>
@@ -27327,7 +27335,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="111" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>110</v>
       </c>
@@ -27407,7 +27415,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="112" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>111</v>
       </c>
@@ -27487,7 +27495,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>112</v>
       </c>
@@ -27567,7 +27575,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="114" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>113</v>
       </c>
@@ -27647,7 +27655,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="115" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>114</v>
       </c>
@@ -27727,7 +27735,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="116" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>115</v>
       </c>
@@ -27807,7 +27815,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="117" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>116</v>
       </c>
@@ -27887,7 +27895,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="118" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>117</v>
       </c>
@@ -27967,7 +27975,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="119" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>118</v>
       </c>
@@ -28047,7 +28055,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="120" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>119</v>
       </c>
@@ -28127,7 +28135,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="121" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>120</v>
       </c>
@@ -28207,7 +28215,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="122" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>121</v>
       </c>
@@ -28287,7 +28295,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="123" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>122</v>
       </c>
@@ -28367,7 +28375,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="124" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>123</v>
       </c>
@@ -28447,7 +28455,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="125" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>124</v>
       </c>
@@ -28527,7 +28535,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="126" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>125</v>
       </c>
@@ -28607,7 +28615,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="127" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>126</v>
       </c>
@@ -28687,7 +28695,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="128" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>127</v>
       </c>
@@ -28767,7 +28775,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="129" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>128</v>
       </c>
@@ -28847,7 +28855,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="130" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>129</v>
       </c>
@@ -28927,7 +28935,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="131" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>130</v>
       </c>
@@ -29007,7 +29015,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="132" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>131</v>
       </c>
@@ -29087,7 +29095,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="133" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>132</v>
       </c>
@@ -29161,7 +29169,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="134" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>133</v>
       </c>
@@ -29232,7 +29240,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="135" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>134</v>
       </c>
@@ -29303,7 +29311,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="136" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>135</v>
       </c>
@@ -29374,7 +29382,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="137" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>136</v>
       </c>
@@ -29445,7 +29453,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="138" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>137</v>
       </c>
@@ -29516,7 +29524,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="139" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>138</v>
       </c>
@@ -29585,7 +29593,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="140" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>139</v>
       </c>
@@ -29654,7 +29662,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="141" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>140</v>
       </c>
@@ -29724,7 +29732,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="142" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>141</v>
       </c>
@@ -29794,7 +29802,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="143" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>142</v>
       </c>
@@ -29864,7 +29872,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="144" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:29" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>143</v>
       </c>
@@ -29934,7 +29942,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="145" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>144</v>
       </c>
@@ -30002,7 +30010,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="146" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>145</v>
       </c>
@@ -30070,7 +30078,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="147" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>146</v>
       </c>
@@ -30138,7 +30146,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="148" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>147</v>
       </c>
@@ -30206,7 +30214,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="149" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>148</v>
       </c>
@@ -30274,7 +30282,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="150" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>149</v>
       </c>
@@ -30342,7 +30350,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="151" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>150</v>
       </c>
@@ -30410,7 +30418,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="152" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>151</v>
       </c>
@@ -30478,7 +30486,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="153" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>152</v>
       </c>
@@ -30546,7 +30554,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="154" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>153</v>
       </c>
@@ -30614,7 +30622,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="155" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>154</v>
       </c>
@@ -30682,7 +30690,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="156" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>155</v>
       </c>
@@ -30750,7 +30758,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="157" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>156</v>
       </c>
@@ -30818,7 +30826,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="158" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>157</v>
       </c>
@@ -30886,7 +30894,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="159" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>158</v>
       </c>
@@ -30954,7 +30962,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="160" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>159</v>
       </c>
@@ -31022,7 +31030,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="161" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>160</v>
       </c>
@@ -31090,7 +31098,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="162" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>161</v>
       </c>
@@ -31158,7 +31166,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="163" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>162</v>
       </c>
@@ -31226,7 +31234,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="164" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>163</v>
       </c>
@@ -31294,7 +31302,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="165" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>164</v>
       </c>
@@ -31362,7 +31370,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="166" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>165</v>
       </c>
@@ -31430,7 +31438,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="167" spans="1:29" ht="198" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>166</v>
       </c>
@@ -31498,7 +31506,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="168" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>167</v>
       </c>
@@ -31566,7 +31574,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="169" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>168</v>
       </c>
@@ -31634,7 +31642,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="170" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>169</v>
       </c>
@@ -31702,7 +31710,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="171" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>170</v>
       </c>
@@ -31770,7 +31778,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="172" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>171</v>
       </c>
@@ -31836,7 +31844,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="173" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>172</v>
       </c>
@@ -31900,7 +31908,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="174" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>173</v>
       </c>
@@ -31964,7 +31972,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="175" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>174</v>
       </c>
@@ -32028,7 +32036,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="176" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>175</v>
       </c>
@@ -32092,7 +32100,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="177" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>176</v>
       </c>
@@ -32156,7 +32164,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="178" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>177</v>
       </c>
@@ -32220,7 +32228,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="179" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>178</v>
       </c>
@@ -32284,7 +32292,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="180" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>179</v>
       </c>
@@ -32348,7 +32356,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="181" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>180</v>
       </c>
@@ -32412,7 +32420,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="182" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>181</v>
       </c>
@@ -32476,7 +32484,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="183" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>182</v>
       </c>
@@ -32540,7 +32548,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="184" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>183</v>
       </c>
@@ -32604,7 +32612,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="185" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>184</v>
       </c>
@@ -32668,7 +32676,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="186" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>185</v>
       </c>
@@ -32732,7 +32740,7 @@
         <v>2877</v>
       </c>
     </row>
-    <row r="187" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>186</v>
       </c>
@@ -32796,7 +32804,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="188" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>187</v>
       </c>
@@ -32860,7 +32868,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="189" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>188</v>
       </c>
@@ -32924,7 +32932,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="190" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>189</v>
       </c>
@@ -32988,7 +32996,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="191" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>190</v>
       </c>
@@ -33052,7 +33060,7 @@
         <v>2919</v>
       </c>
     </row>
-    <row r="192" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>191</v>
       </c>
@@ -33116,7 +33124,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="193" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>192</v>
       </c>
@@ -33180,7 +33188,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="194" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>193</v>
       </c>
@@ -33244,7 +33252,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="195" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
         <v>194</v>
       </c>
@@ -33305,7 +33313,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="196" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
         <v>195</v>
       </c>
@@ -33366,7 +33374,7 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="197" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <v>196</v>
       </c>
@@ -33427,7 +33435,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="198" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
         <v>197</v>
       </c>
@@ -33488,7 +33496,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="199" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
         <v>198</v>
       </c>
@@ -33549,7 +33557,7 @@
         <v>2994</v>
       </c>
     </row>
-    <row r="200" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>199</v>
       </c>
@@ -33610,7 +33618,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="201" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
         <v>200</v>
       </c>
@@ -33671,7 +33679,7 @@
         <v>3012</v>
       </c>
     </row>
-    <row r="202" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
         <v>201</v>
       </c>
@@ -33732,7 +33740,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="203" spans="1:29" ht="198" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
         <v>202</v>
       </c>
@@ -33793,7 +33801,7 @@
         <v>3030</v>
       </c>
     </row>
-    <row r="204" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
         <v>203</v>
       </c>
@@ -33854,7 +33862,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="205" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
         <v>204</v>
       </c>
@@ -33915,7 +33923,7 @@
         <v>3048</v>
       </c>
     </row>
-    <row r="206" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>205</v>
       </c>
@@ -33976,7 +33984,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="207" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <v>206</v>
       </c>
@@ -34037,7 +34045,7 @@
         <v>3064</v>
       </c>
     </row>
-    <row r="208" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>207</v>
       </c>
@@ -34098,7 +34106,7 @@
         <v>3072</v>
       </c>
     </row>
-    <row r="209" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
         <v>208</v>
       </c>
@@ -34159,7 +34167,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="210" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
         <v>209</v>
       </c>
@@ -34218,7 +34226,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="211" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
         <v>210</v>
       </c>
@@ -34277,7 +34285,7 @@
         <v>3098</v>
       </c>
     </row>
-    <row r="212" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
         <v>211</v>
       </c>
@@ -34336,7 +34344,7 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="213" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
         <v>212</v>
       </c>
@@ -34395,7 +34403,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="214" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
         <v>213</v>
       </c>
@@ -34454,7 +34462,7 @@
         <v>3123</v>
       </c>
     </row>
-    <row r="215" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>214</v>
       </c>
@@ -34513,7 +34521,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="216" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
         <v>215</v>
       </c>
@@ -34572,7 +34580,7 @@
         <v>3139</v>
       </c>
     </row>
-    <row r="217" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>216</v>
       </c>
@@ -34631,7 +34639,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="218" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>217</v>
       </c>
@@ -34690,7 +34698,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="219" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
         <v>218</v>
       </c>
@@ -34748,7 +34756,7 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="220" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>219</v>
       </c>
@@ -34804,7 +34812,7 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="221" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>220</v>
       </c>
@@ -34860,7 +34868,7 @@
         <v>3174</v>
       </c>
     </row>
-    <row r="222" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
         <v>221</v>
       </c>
@@ -34916,7 +34924,7 @@
         <v>3181</v>
       </c>
     </row>
-    <row r="223" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>222</v>
       </c>
@@ -34972,7 +34980,7 @@
         <v>3189</v>
       </c>
     </row>
-    <row r="224" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>223</v>
       </c>
@@ -35028,7 +35036,7 @@
         <v>3198</v>
       </c>
     </row>
-    <row r="225" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
         <v>224</v>
       </c>
@@ -35084,7 +35092,7 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="226" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>225</v>
       </c>
@@ -35140,7 +35148,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="227" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
         <v>226</v>
       </c>
@@ -35196,7 +35204,7 @@
         <v>3223</v>
       </c>
     </row>
-    <row r="228" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
         <v>227</v>
       </c>
@@ -35254,7 +35262,7 @@
         <v>3232</v>
       </c>
     </row>
-    <row r="229" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>228</v>
       </c>
@@ -35312,7 +35320,7 @@
         <v>3239</v>
       </c>
     </row>
-    <row r="230" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>229</v>
       </c>
@@ -35370,7 +35378,7 @@
         <v>3245</v>
       </c>
     </row>
-    <row r="231" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
         <v>230</v>
       </c>
@@ -35428,7 +35436,7 @@
         <v>3252</v>
       </c>
     </row>
-    <row r="232" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
         <v>231</v>
       </c>
@@ -35486,7 +35494,7 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="233" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>232</v>
       </c>
@@ -35544,7 +35552,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="234" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
         <v>233</v>
       </c>
@@ -35602,7 +35610,7 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="235" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
         <v>234</v>
       </c>
@@ -35660,7 +35668,7 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="236" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
         <v>235</v>
       </c>
@@ -35718,7 +35726,7 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="237" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
         <v>236</v>
       </c>
@@ -35776,7 +35784,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="238" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
         <v>237</v>
       </c>
@@ -35834,7 +35842,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="239" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
         <v>238</v>
       </c>
@@ -35892,7 +35900,7 @@
         <v>3314</v>
       </c>
     </row>
-    <row r="240" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
         <v>239</v>
       </c>
@@ -35950,7 +35958,7 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="241" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
         <v>240</v>
       </c>
@@ -36008,7 +36016,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="242" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
         <v>241</v>
       </c>
@@ -36066,7 +36074,7 @@
         <v>3339</v>
       </c>
     </row>
-    <row r="243" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
         <v>242</v>
       </c>
@@ -36124,7 +36132,7 @@
         <v>3346</v>
       </c>
     </row>
-    <row r="244" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
         <v>243</v>
       </c>
@@ -36181,7 +36189,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="245" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
         <v>244</v>
       </c>
@@ -36237,7 +36245,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="246" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
         <v>245</v>
       </c>
@@ -36293,7 +36301,7 @@
         <v>3367</v>
       </c>
     </row>
-    <row r="247" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
         <v>246</v>
       </c>
@@ -36349,7 +36357,7 @@
         <v>3373</v>
       </c>
     </row>
-    <row r="248" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
         <v>247</v>
       </c>
@@ -36405,7 +36413,7 @@
         <v>3380</v>
       </c>
     </row>
-    <row r="249" spans="1:29" ht="198" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
         <v>248</v>
       </c>
@@ -36461,7 +36469,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="250" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="18">
         <v>249</v>
       </c>
@@ -36517,7 +36525,7 @@
         <v>3397</v>
       </c>
     </row>
-    <row r="251" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
         <v>250</v>
       </c>
@@ -36573,7 +36581,7 @@
         <v>3405</v>
       </c>
     </row>
-    <row r="252" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
         <v>251</v>
       </c>
@@ -36629,7 +36637,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="253" spans="1:29" ht="198" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
         <v>252</v>
       </c>
@@ -36685,7 +36693,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="254" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
         <v>253</v>
       </c>
@@ -36741,7 +36749,7 @@
         <v>3431</v>
       </c>
     </row>
-    <row r="255" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
         <v>254</v>
       </c>
@@ -36797,7 +36805,7 @@
         <v>3438</v>
       </c>
     </row>
-    <row r="256" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
         <v>255</v>
       </c>
@@ -36853,7 +36861,7 @@
         <v>3444</v>
       </c>
     </row>
-    <row r="257" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
         <v>256</v>
       </c>
@@ -36909,7 +36917,7 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="258" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
         <v>257</v>
       </c>
@@ -36965,7 +36973,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="259" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
         <v>258</v>
       </c>
@@ -37021,7 +37029,7 @@
         <v>3462</v>
       </c>
     </row>
-    <row r="260" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
         <v>259</v>
       </c>
@@ -37077,7 +37085,7 @@
         <v>3468</v>
       </c>
     </row>
-    <row r="261" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
         <v>260</v>
       </c>
@@ -37133,7 +37141,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="262" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
         <v>261</v>
       </c>
@@ -37189,7 +37197,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="263" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
         <v>262</v>
       </c>
@@ -37245,7 +37253,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="264" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
         <v>263</v>
       </c>
@@ -37301,7 +37309,7 @@
         <v>3491</v>
       </c>
     </row>
-    <row r="265" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
         <v>264</v>
       </c>
@@ -37357,7 +37365,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="266" spans="1:29" ht="198" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
         <v>265</v>
       </c>
@@ -37413,7 +37421,7 @@
         <v>3499</v>
       </c>
     </row>
-    <row r="267" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
         <v>266</v>
       </c>
@@ -37469,7 +37477,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="268" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
         <v>267</v>
       </c>
@@ -37525,7 +37533,7 @@
         <v>3509</v>
       </c>
     </row>
-    <row r="269" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
         <v>268</v>
       </c>
@@ -37581,7 +37589,7 @@
         <v>3515</v>
       </c>
     </row>
-    <row r="270" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
         <v>269</v>
       </c>
@@ -37637,7 +37645,7 @@
         <v>3522</v>
       </c>
     </row>
-    <row r="271" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
         <v>270</v>
       </c>
@@ -37691,7 +37699,7 @@
         <v>3529</v>
       </c>
     </row>
-    <row r="272" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
         <v>271</v>
       </c>
@@ -37745,7 +37753,7 @@
         <v>3537</v>
       </c>
     </row>
-    <row r="273" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
         <v>272</v>
       </c>
@@ -37799,7 +37807,7 @@
         <v>3544</v>
       </c>
     </row>
-    <row r="274" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
         <v>273</v>
       </c>
@@ -37853,7 +37861,7 @@
         <v>3551</v>
       </c>
     </row>
-    <row r="275" spans="1:29" ht="198" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
         <v>274</v>
       </c>
@@ -37907,7 +37915,7 @@
         <v>3556</v>
       </c>
     </row>
-    <row r="276" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
         <v>275</v>
       </c>
@@ -37961,7 +37969,7 @@
         <v>3561</v>
       </c>
     </row>
-    <row r="277" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
         <v>276</v>
       </c>
@@ -38015,7 +38023,7 @@
         <v>3566</v>
       </c>
     </row>
-    <row r="278" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
         <v>277</v>
       </c>
@@ -38067,7 +38075,7 @@
         <v>3569</v>
       </c>
     </row>
-    <row r="279" spans="1:29" ht="72" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
         <v>278</v>
       </c>
@@ -38119,7 +38127,7 @@
         <v>3572</v>
       </c>
     </row>
-    <row r="280" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
         <v>279</v>
       </c>
@@ -38171,7 +38179,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="281" spans="1:29" ht="72" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
         <v>280</v>
       </c>
@@ -38223,7 +38231,7 @@
         <v>3579</v>
       </c>
     </row>
-    <row r="282" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
         <v>281</v>
       </c>
@@ -38275,7 +38283,7 @@
         <v>3582</v>
       </c>
     </row>
-    <row r="283" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
         <v>282</v>
       </c>
@@ -38327,7 +38335,7 @@
         <v>3586</v>
       </c>
     </row>
-    <row r="284" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
         <v>283</v>
       </c>
@@ -38379,7 +38387,7 @@
         <v>3591</v>
       </c>
     </row>
-    <row r="285" spans="1:29" ht="108" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
         <v>284</v>
       </c>
@@ -38429,7 +38437,7 @@
         <v>3596</v>
       </c>
     </row>
-    <row r="286" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
         <v>285</v>
       </c>
@@ -38479,7 +38487,7 @@
         <v>3601</v>
       </c>
     </row>
-    <row r="287" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
         <v>286</v>
       </c>
@@ -38529,7 +38537,7 @@
         <v>3606</v>
       </c>
     </row>
-    <row r="288" spans="1:29" ht="108" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
         <v>287</v>
       </c>
@@ -38579,7 +38587,7 @@
         <v>3610</v>
       </c>
     </row>
-    <row r="289" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
         <v>288</v>
       </c>
@@ -38629,7 +38637,7 @@
         <v>3615</v>
       </c>
     </row>
-    <row r="290" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
         <v>289</v>
       </c>
@@ -38679,7 +38687,7 @@
         <v>3619</v>
       </c>
     </row>
-    <row r="291" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
         <v>290</v>
       </c>
@@ -38729,7 +38737,7 @@
         <v>3623</v>
       </c>
     </row>
-    <row r="292" spans="1:29" ht="108" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
         <v>291</v>
       </c>
@@ -38779,7 +38787,7 @@
         <v>3628</v>
       </c>
     </row>
-    <row r="293" spans="1:29" ht="108" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>292</v>
       </c>
@@ -38826,7 +38834,7 @@
         <v>3632</v>
       </c>
     </row>
-    <row r="294" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
         <v>293</v>
       </c>
@@ -38873,7 +38881,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="295" spans="1:29" ht="72" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
         <v>294</v>
       </c>
@@ -38920,7 +38928,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="296" spans="1:29" ht="72" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
         <v>295</v>
       </c>
@@ -38967,7 +38975,7 @@
         <v>3644</v>
       </c>
     </row>
-    <row r="297" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
         <v>296</v>
       </c>
@@ -39014,7 +39022,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="298" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
         <v>297</v>
       </c>
@@ -39061,7 +39069,7 @@
         <v>3656</v>
       </c>
     </row>
-    <row r="299" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
         <v>298</v>
       </c>
@@ -39108,7 +39116,7 @@
         <v>3661</v>
       </c>
     </row>
-    <row r="300" spans="1:29" ht="108" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
         <v>299</v>
       </c>
@@ -39155,7 +39163,7 @@
         <v>3666</v>
       </c>
     </row>
-    <row r="301" spans="1:29" ht="108" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
         <v>300</v>
       </c>
@@ -39202,7 +39210,7 @@
         <v>3672</v>
       </c>
     </row>
-    <row r="302" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
         <v>301</v>
       </c>
@@ -39249,7 +39257,7 @@
         <v>3677</v>
       </c>
     </row>
-    <row r="303" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="6">
         <v>302</v>
       </c>
@@ -39296,7 +39304,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="304" spans="1:29" ht="108" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="6">
         <v>303</v>
       </c>
@@ -39343,7 +39351,7 @@
         <v>3686</v>
       </c>
     </row>
-    <row r="305" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
         <v>304</v>
       </c>
@@ -39390,7 +39398,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="306" spans="1:29" ht="108" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
         <v>305</v>
       </c>
@@ -39437,7 +39445,7 @@
         <v>3695</v>
       </c>
     </row>
-    <row r="307" spans="1:29" ht="108" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
         <v>306</v>
       </c>
@@ -39484,7 +39492,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="308" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="6">
         <v>307</v>
       </c>
@@ -39531,7 +39539,7 @@
         <v>3704</v>
       </c>
     </row>
-    <row r="309" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
         <v>308</v>
       </c>
@@ -39578,7 +39586,7 @@
         <v>3708</v>
       </c>
     </row>
-    <row r="310" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="6">
         <v>309</v>
       </c>
@@ -39625,7 +39633,7 @@
         <v>3713</v>
       </c>
     </row>
-    <row r="311" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="6">
         <v>310</v>
       </c>
@@ -39672,7 +39680,7 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="312" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
         <v>311</v>
       </c>
@@ -39719,7 +39727,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="313" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="6">
         <v>312</v>
       </c>
@@ -39766,7 +39774,7 @@
         <v>3730</v>
       </c>
     </row>
-    <row r="314" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="6">
         <v>313</v>
       </c>
@@ -39813,7 +39821,7 @@
         <v>3736</v>
       </c>
     </row>
-    <row r="315" spans="1:29" ht="108" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="6">
         <v>314</v>
       </c>
@@ -39860,7 +39868,7 @@
         <v>3742</v>
       </c>
     </row>
-    <row r="316" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="6">
         <v>315</v>
       </c>
@@ -39907,7 +39915,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="317" spans="1:29" ht="108" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
         <v>316</v>
       </c>
@@ -39954,7 +39962,7 @@
         <v>3755</v>
       </c>
     </row>
-    <row r="318" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
         <v>317</v>
       </c>
@@ -40001,7 +40009,7 @@
         <v>3762</v>
       </c>
     </row>
-    <row r="319" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
         <v>318</v>
       </c>
@@ -40048,7 +40056,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="320" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
         <v>319</v>
       </c>
@@ -40095,7 +40103,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="321" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
         <v>320</v>
       </c>
@@ -40140,7 +40148,7 @@
         <v>3781</v>
       </c>
     </row>
-    <row r="322" spans="1:29" ht="108" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="6">
         <v>321</v>
       </c>
@@ -40185,7 +40193,7 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="323" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="6">
         <v>322</v>
       </c>
@@ -40230,7 +40238,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="324" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="6">
         <v>323</v>
       </c>
@@ -40275,7 +40283,7 @@
         <v>3799</v>
       </c>
     </row>
-    <row r="325" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="6">
         <v>324</v>
       </c>
@@ -40320,7 +40328,7 @@
         <v>3805</v>
       </c>
     </row>
-    <row r="326" spans="1:29" ht="108" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="6">
         <v>325</v>
       </c>
@@ -40365,7 +40373,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="327" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="6">
         <v>326</v>
       </c>
@@ -40410,7 +40418,7 @@
         <v>3817</v>
       </c>
     </row>
-    <row r="328" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
         <v>327</v>
       </c>
@@ -40452,7 +40460,7 @@
       <c r="Y328" s="13"/>
       <c r="AA328" s="13"/>
     </row>
-    <row r="329" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
         <v>328</v>
       </c>
@@ -40494,7 +40502,7 @@
       <c r="Y329" s="13"/>
       <c r="AA329" s="13"/>
     </row>
-    <row r="330" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
         <v>329</v>
       </c>
@@ -40536,7 +40544,7 @@
       <c r="Y330" s="13"/>
       <c r="AA330" s="13"/>
     </row>
-    <row r="331" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="6">
         <v>330</v>
       </c>
@@ -40578,7 +40586,7 @@
       <c r="Y331" s="13"/>
       <c r="AA331" s="13"/>
     </row>
-    <row r="332" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
         <v>331</v>
       </c>
@@ -40620,7 +40628,7 @@
       <c r="Y332" s="13"/>
       <c r="AA332" s="13"/>
     </row>
-    <row r="333" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="6">
         <v>332</v>
       </c>
@@ -40662,7 +40670,7 @@
       <c r="Y333" s="13"/>
       <c r="AA333" s="13"/>
     </row>
-    <row r="334" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="6">
         <v>333</v>
       </c>
@@ -40704,7 +40712,7 @@
       <c r="Y334" s="13"/>
       <c r="AA334" s="13"/>
     </row>
-    <row r="335" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="6">
         <v>334</v>
       </c>
@@ -40746,7 +40754,7 @@
       <c r="Y335" s="13"/>
       <c r="AA335" s="13"/>
     </row>
-    <row r="336" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="6">
         <v>335</v>
       </c>
@@ -40788,7 +40796,7 @@
       <c r="Y336" s="13"/>
       <c r="AA336" s="13"/>
     </row>
-    <row r="337" spans="1:27" ht="126" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="6">
         <v>336</v>
       </c>
@@ -40830,7 +40838,7 @@
       <c r="Y337" s="13"/>
       <c r="AA337" s="13"/>
     </row>
-    <row r="338" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="6">
         <v>337</v>
       </c>
@@ -40872,7 +40880,7 @@
       <c r="Y338" s="13"/>
       <c r="AA338" s="13"/>
     </row>
-    <row r="339" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="6">
         <v>338</v>
       </c>
@@ -40914,7 +40922,7 @@
       <c r="Y339" s="13"/>
       <c r="AA339" s="13"/>
     </row>
-    <row r="340" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="6">
         <v>339</v>
       </c>
@@ -40956,7 +40964,7 @@
       <c r="Y340" s="13"/>
       <c r="AA340" s="13"/>
     </row>
-    <row r="341" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="6">
         <v>340</v>
       </c>
@@ -40998,7 +41006,7 @@
       <c r="Y341" s="13"/>
       <c r="AA341" s="13"/>
     </row>
-    <row r="342" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="6">
         <v>341</v>
       </c>
@@ -41040,7 +41048,7 @@
       <c r="Y342" s="13"/>
       <c r="AA342" s="13"/>
     </row>
-    <row r="343" spans="1:27" ht="108" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="6">
         <v>342</v>
       </c>
@@ -41082,7 +41090,7 @@
       <c r="Y343" s="13"/>
       <c r="AA343" s="13"/>
     </row>
-    <row r="344" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="6">
         <v>343</v>
       </c>
@@ -41124,7 +41132,7 @@
       <c r="Y344" s="13"/>
       <c r="AA344" s="13"/>
     </row>
-    <row r="345" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="6">
         <v>344</v>
       </c>
@@ -41166,7 +41174,7 @@
       <c r="Y345" s="13"/>
       <c r="AA345" s="13"/>
     </row>
-    <row r="346" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="6">
         <v>345</v>
       </c>
@@ -41208,7 +41216,7 @@
       <c r="Y346" s="13"/>
       <c r="AA346" s="13"/>
     </row>
-    <row r="347" spans="1:27" ht="108" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="6">
         <v>346</v>
       </c>
@@ -41250,7 +41258,7 @@
       <c r="Y347" s="13"/>
       <c r="AA347" s="13"/>
     </row>
-    <row r="348" spans="1:27" ht="108" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="6">
         <v>347</v>
       </c>
@@ -41292,7 +41300,7 @@
       <c r="Y348" s="13"/>
       <c r="AA348" s="13"/>
     </row>
-    <row r="349" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="6">
         <v>348</v>
       </c>
@@ -41334,7 +41342,7 @@
       <c r="Y349" s="13"/>
       <c r="AA349" s="13"/>
     </row>
-    <row r="350" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="6">
         <v>349</v>
       </c>
@@ -41376,7 +41384,7 @@
       <c r="Y350" s="13"/>
       <c r="AA350" s="13"/>
     </row>
-    <row r="351" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="6">
         <v>350</v>
       </c>
@@ -41418,7 +41426,7 @@
       <c r="Y351" s="13"/>
       <c r="AA351" s="13"/>
     </row>
-    <row r="352" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="6">
         <v>351</v>
       </c>
@@ -41460,7 +41468,7 @@
       <c r="Y352" s="13"/>
       <c r="AA352" s="13"/>
     </row>
-    <row r="353" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="6">
         <v>352</v>
       </c>
@@ -41502,7 +41510,7 @@
       <c r="Y353" s="13"/>
       <c r="AA353" s="13"/>
     </row>
-    <row r="354" spans="1:27" ht="144" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="6">
         <v>353</v>
       </c>
@@ -41544,7 +41552,7 @@
       <c r="Y354" s="13"/>
       <c r="AA354" s="13"/>
     </row>
-    <row r="355" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="6">
         <v>354</v>
       </c>
@@ -41586,7 +41594,7 @@
       <c r="Y355" s="13"/>
       <c r="AA355" s="13"/>
     </row>
-    <row r="356" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="6">
         <v>355</v>
       </c>
@@ -41628,7 +41636,7 @@
       <c r="Y356" s="13"/>
       <c r="AA356" s="13"/>
     </row>
-    <row r="357" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="6">
         <v>356</v>
       </c>
@@ -41670,7 +41678,7 @@
       <c r="Y357" s="13"/>
       <c r="AA357" s="13"/>
     </row>
-    <row r="358" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="6">
         <v>357</v>
       </c>
@@ -41712,7 +41720,7 @@
       <c r="Y358" s="13"/>
       <c r="AA358" s="13"/>
     </row>
-    <row r="359" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="6">
         <v>358</v>
       </c>
@@ -41754,7 +41762,7 @@
       <c r="Y359" s="13"/>
       <c r="AA359" s="13"/>
     </row>
-    <row r="360" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="6">
         <v>359</v>
       </c>
@@ -41796,7 +41804,7 @@
       <c r="Y360" s="13"/>
       <c r="AA360" s="13"/>
     </row>
-    <row r="361" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="6">
         <v>360</v>
       </c>
@@ -41838,7 +41846,7 @@
       <c r="Y361" s="13"/>
       <c r="AA361" s="13"/>
     </row>
-    <row r="362" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="6">
         <v>361</v>
       </c>
@@ -41880,7 +41888,7 @@
       <c r="Y362" s="13"/>
       <c r="AA362" s="13"/>
     </row>
-    <row r="363" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="6">
         <v>362</v>
       </c>
@@ -41922,7 +41930,7 @@
       <c r="Y363" s="13"/>
       <c r="AA363" s="13"/>
     </row>
-    <row r="364" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="6">
         <v>363</v>
       </c>
@@ -41964,7 +41972,7 @@
       <c r="Y364" s="13"/>
       <c r="AA364" s="13"/>
     </row>
-    <row r="365" spans="1:27" ht="162" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="6">
         <v>364</v>
       </c>
@@ -42006,7 +42014,7 @@
       <c r="Y365" s="13"/>
       <c r="AA365" s="13"/>
     </row>
-    <row r="366" spans="1:27" ht="180" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="6">
         <v>365</v>
       </c>
@@ -42048,7 +42056,7 @@
       <c r="Y366" s="13"/>
       <c r="AA366" s="13"/>
     </row>
-    <row r="367" spans="1:27" ht="162" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="6">
         <v>366</v>
       </c>
@@ -42090,7 +42098,7 @@
       <c r="Y367" s="13"/>
       <c r="AA367" s="13"/>
     </row>
-    <row r="368" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6">
         <v>367</v>
       </c>
@@ -42130,7 +42138,7 @@
       <c r="Y368" s="13"/>
       <c r="AA368" s="13"/>
     </row>
-    <row r="369" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="6">
         <v>368</v>
       </c>
@@ -42170,7 +42178,7 @@
       <c r="Y369" s="13"/>
       <c r="AA369" s="13"/>
     </row>
-    <row r="370" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="6">
         <v>369</v>
       </c>
@@ -42210,7 +42218,7 @@
       <c r="Y370" s="13"/>
       <c r="AA370" s="13"/>
     </row>
-    <row r="371" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="6">
         <v>370</v>
       </c>
@@ -42250,7 +42258,7 @@
       <c r="Y371" s="13"/>
       <c r="AA371" s="13"/>
     </row>
-    <row r="372" spans="1:27" ht="126" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="6">
         <v>371</v>
       </c>
@@ -42290,7 +42298,7 @@
       <c r="Y372" s="13"/>
       <c r="AA372" s="13"/>
     </row>
-    <row r="373" spans="1:27" ht="126" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="6">
         <v>372</v>
       </c>
@@ -42330,7 +42338,7 @@
       <c r="Y373" s="13"/>
       <c r="AA373" s="13"/>
     </row>
-    <row r="374" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="6">
         <v>373</v>
       </c>
@@ -42368,7 +42376,7 @@
       <c r="Y374" s="13"/>
       <c r="AA374" s="13"/>
     </row>
-    <row r="375" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="6">
         <v>374</v>
       </c>
@@ -42406,7 +42414,7 @@
       <c r="Y375" s="13"/>
       <c r="AA375" s="13"/>
     </row>
-    <row r="376" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="6">
         <v>375</v>
       </c>
@@ -42444,7 +42452,7 @@
       <c r="Y376" s="13"/>
       <c r="AA376" s="13"/>
     </row>
-    <row r="377" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="6">
         <v>376</v>
       </c>
@@ -42482,7 +42490,7 @@
       <c r="Y377" s="13"/>
       <c r="AA377" s="13"/>
     </row>
-    <row r="378" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="6">
         <v>377</v>
       </c>
@@ -42520,7 +42528,7 @@
       <c r="Y378" s="13"/>
       <c r="AA378" s="13"/>
     </row>
-    <row r="379" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="6">
         <v>378</v>
       </c>
@@ -42558,7 +42566,7 @@
       <c r="Y379" s="13"/>
       <c r="AA379" s="13"/>
     </row>
-    <row r="380" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="6">
         <v>379</v>
       </c>
@@ -42596,7 +42604,7 @@
       <c r="Y380" s="13"/>
       <c r="AA380" s="13"/>
     </row>
-    <row r="381" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="6">
         <v>380</v>
       </c>
@@ -42634,7 +42642,7 @@
       <c r="Y381" s="13"/>
       <c r="AA381" s="13"/>
     </row>
-    <row r="382" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="6">
         <v>381</v>
       </c>
@@ -42672,7 +42680,7 @@
       <c r="Y382" s="13"/>
       <c r="AA382" s="13"/>
     </row>
-    <row r="383" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="6">
         <v>382</v>
       </c>
@@ -42710,7 +42718,7 @@
       <c r="Y383" s="13"/>
       <c r="AA383" s="13"/>
     </row>
-    <row r="384" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="6">
         <v>383</v>
       </c>
@@ -42748,7 +42756,7 @@
       <c r="Y384" s="13"/>
       <c r="AA384" s="13"/>
     </row>
-    <row r="385" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="6">
         <v>384</v>
       </c>
@@ -42784,7 +42792,7 @@
       <c r="Y385" s="13"/>
       <c r="AA385" s="13"/>
     </row>
-    <row r="386" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="6">
         <v>385</v>
       </c>
@@ -42820,7 +42828,7 @@
       <c r="Y386" s="13"/>
       <c r="AA386" s="13"/>
     </row>
-    <row r="387" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="6">
         <v>386</v>
       </c>
@@ -42856,7 +42864,7 @@
       <c r="Y387" s="13"/>
       <c r="AA387" s="13"/>
     </row>
-    <row r="388" spans="1:27" ht="108" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="6">
         <v>387</v>
       </c>
@@ -42892,7 +42900,7 @@
       <c r="Y388" s="13"/>
       <c r="AA388" s="13"/>
     </row>
-    <row r="389" spans="1:27" ht="126" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="6">
         <v>388</v>
       </c>
@@ -42928,7 +42936,7 @@
       <c r="Y389" s="13"/>
       <c r="AA389" s="13"/>
     </row>
-    <row r="390" spans="1:27" ht="108" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="6">
         <v>389</v>
       </c>
@@ -42964,7 +42972,7 @@
       <c r="Y390" s="13"/>
       <c r="AA390" s="13"/>
     </row>
-    <row r="391" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="6">
         <v>390</v>
       </c>
@@ -43000,7 +43008,7 @@
       <c r="Y391" s="13"/>
       <c r="AA391" s="13"/>
     </row>
-    <row r="392" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="6">
         <v>391</v>
       </c>
@@ -43036,7 +43044,7 @@
       <c r="Y392" s="13"/>
       <c r="AA392" s="13"/>
     </row>
-    <row r="393" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="6">
         <v>392</v>
       </c>
@@ -43072,7 +43080,7 @@
       <c r="Y393" s="13"/>
       <c r="AA393" s="13"/>
     </row>
-    <row r="394" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="6">
         <v>393</v>
       </c>
@@ -43108,7 +43116,7 @@
       <c r="Y394" s="13"/>
       <c r="AA394" s="13"/>
     </row>
-    <row r="395" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="6">
         <v>394</v>
       </c>
@@ -43144,7 +43152,7 @@
       <c r="Y395" s="13"/>
       <c r="AA395" s="13"/>
     </row>
-    <row r="396" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="6">
         <v>395</v>
       </c>
@@ -43180,7 +43188,7 @@
       <c r="Y396" s="13"/>
       <c r="AA396" s="13"/>
     </row>
-    <row r="397" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="6">
         <v>396</v>
       </c>
@@ -43216,7 +43224,7 @@
       <c r="Y397" s="13"/>
       <c r="AA397" s="13"/>
     </row>
-    <row r="398" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="6">
         <v>397</v>
       </c>
@@ -43252,7 +43260,7 @@
       <c r="Y398" s="13"/>
       <c r="AA398" s="13"/>
     </row>
-    <row r="399" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="6">
         <v>398</v>
       </c>
@@ -43288,7 +43296,7 @@
       <c r="Y399" s="13"/>
       <c r="AA399" s="13"/>
     </row>
-    <row r="400" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="6">
         <v>399</v>
       </c>
@@ -43322,7 +43330,7 @@
       <c r="Y400" s="13"/>
       <c r="AA400" s="13"/>
     </row>
-    <row r="401" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="6">
         <v>400</v>
       </c>
@@ -43356,7 +43364,7 @@
       <c r="Y401" s="13"/>
       <c r="AA401" s="13"/>
     </row>
-    <row r="402" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="6">
         <v>401</v>
       </c>
@@ -43390,7 +43398,7 @@
       <c r="Y402" s="13"/>
       <c r="AA402" s="13"/>
     </row>
-    <row r="403" spans="1:27" ht="108" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="6">
         <v>402</v>
       </c>
@@ -43424,7 +43432,7 @@
       <c r="Y403" s="13"/>
       <c r="AA403" s="13"/>
     </row>
-    <row r="404" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="6">
         <v>403</v>
       </c>
@@ -43458,7 +43466,7 @@
       <c r="Y404" s="13"/>
       <c r="AA404" s="13"/>
     </row>
-    <row r="405" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="6">
         <v>404</v>
       </c>
@@ -43492,7 +43500,7 @@
       <c r="Y405" s="13"/>
       <c r="AA405" s="13"/>
     </row>
-    <row r="406" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="6">
         <v>405</v>
       </c>
@@ -43526,7 +43534,7 @@
       <c r="Y406" s="13"/>
       <c r="AA406" s="13"/>
     </row>
-    <row r="407" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="6">
         <v>406</v>
       </c>
@@ -43560,7 +43568,7 @@
       <c r="Y407" s="13"/>
       <c r="AA407" s="13"/>
     </row>
-    <row r="408" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="6">
         <v>407</v>
       </c>
@@ -43594,7 +43602,7 @@
       <c r="Y408" s="13"/>
       <c r="AA408" s="13"/>
     </row>
-    <row r="409" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="6">
         <v>408</v>
       </c>
@@ -43628,7 +43636,7 @@
       <c r="Y409" s="13"/>
       <c r="AA409" s="13"/>
     </row>
-    <row r="410" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="6">
         <v>409</v>
       </c>
@@ -43662,7 +43670,7 @@
       <c r="Y410" s="13"/>
       <c r="AA410" s="13"/>
     </row>
-    <row r="411" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="6">
         <v>410</v>
       </c>
@@ -43696,7 +43704,7 @@
       <c r="Y411" s="13"/>
       <c r="AA411" s="13"/>
     </row>
-    <row r="412" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="6">
         <v>411</v>
       </c>
@@ -43730,7 +43738,7 @@
       <c r="Y412" s="13"/>
       <c r="AA412" s="13"/>
     </row>
-    <row r="413" spans="1:27" ht="126" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="6">
         <v>412</v>
       </c>
@@ -43764,7 +43772,7 @@
       <c r="Y413" s="13"/>
       <c r="AA413" s="13"/>
     </row>
-    <row r="414" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="6">
         <v>413</v>
       </c>
@@ -43798,7 +43806,7 @@
       <c r="Y414" s="13"/>
       <c r="AA414" s="13"/>
     </row>
-    <row r="415" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="6">
         <v>414</v>
       </c>
@@ -43832,7 +43840,7 @@
       <c r="Y415" s="13"/>
       <c r="AA415" s="13"/>
     </row>
-    <row r="416" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="6">
         <v>415</v>
       </c>
@@ -43866,7 +43874,7 @@
       <c r="Y416" s="13"/>
       <c r="AA416" s="13"/>
     </row>
-    <row r="417" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="6">
         <v>416</v>
       </c>
@@ -43900,7 +43908,7 @@
       <c r="Y417" s="13"/>
       <c r="AA417" s="13"/>
     </row>
-    <row r="418" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="6">
         <v>417</v>
       </c>
@@ -43934,7 +43942,7 @@
       <c r="Y418" s="13"/>
       <c r="AA418" s="13"/>
     </row>
-    <row r="419" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="6">
         <v>418</v>
       </c>
@@ -43968,7 +43976,7 @@
       <c r="Y419" s="13"/>
       <c r="AA419" s="13"/>
     </row>
-    <row r="420" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="6">
         <v>419</v>
       </c>
@@ -44002,7 +44010,7 @@
       <c r="Y420" s="13"/>
       <c r="AA420" s="13"/>
     </row>
-    <row r="421" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="6">
         <v>420</v>
       </c>
@@ -44036,7 +44044,7 @@
       <c r="Y421" s="13"/>
       <c r="AA421" s="13"/>
     </row>
-    <row r="422" spans="1:27" ht="180" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="6">
         <v>421</v>
       </c>
@@ -44070,7 +44078,7 @@
       <c r="Y422" s="13"/>
       <c r="AA422" s="13"/>
     </row>
-    <row r="423" spans="1:27" ht="162" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="6">
         <v>422</v>
       </c>
@@ -44104,7 +44112,7 @@
       <c r="Y423" s="13"/>
       <c r="AA423" s="13"/>
     </row>
-    <row r="424" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="6">
         <v>423</v>
       </c>
@@ -44138,7 +44146,7 @@
       <c r="Y424" s="13"/>
       <c r="AA424" s="13"/>
     </row>
-    <row r="425" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="6">
         <v>424</v>
       </c>
@@ -44172,7 +44180,7 @@
       <c r="Y425" s="13"/>
       <c r="AA425" s="13"/>
     </row>
-    <row r="426" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="6">
         <v>425</v>
       </c>
@@ -44206,7 +44214,7 @@
       <c r="Y426" s="13"/>
       <c r="AA426" s="13"/>
     </row>
-    <row r="427" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="6">
         <v>426</v>
       </c>
@@ -44240,7 +44248,7 @@
       <c r="Y427" s="13"/>
       <c r="AA427" s="13"/>
     </row>
-    <row r="428" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="6">
         <v>427</v>
       </c>
@@ -44274,7 +44282,7 @@
       <c r="Y428" s="13"/>
       <c r="AA428" s="13"/>
     </row>
-    <row r="429" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="6">
         <v>428</v>
       </c>
@@ -44308,7 +44316,7 @@
       <c r="Y429" s="13"/>
       <c r="AA429" s="13"/>
     </row>
-    <row r="430" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="6">
         <v>429</v>
       </c>
@@ -44342,7 +44350,7 @@
       <c r="Y430" s="13"/>
       <c r="AA430" s="13"/>
     </row>
-    <row r="431" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="6">
         <v>430</v>
       </c>
@@ -44376,7 +44384,7 @@
       <c r="Y431" s="13"/>
       <c r="AA431" s="13"/>
     </row>
-    <row r="432" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="6">
         <v>431</v>
       </c>
@@ -44410,7 +44418,7 @@
       <c r="Y432" s="13"/>
       <c r="AA432" s="13"/>
     </row>
-    <row r="433" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="6">
         <v>432</v>
       </c>
@@ -44444,7 +44452,7 @@
       <c r="Y433" s="13"/>
       <c r="AA433" s="13"/>
     </row>
-    <row r="434" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="6">
         <v>433</v>
       </c>
@@ -44478,7 +44486,7 @@
       <c r="Y434" s="13"/>
       <c r="AA434" s="13"/>
     </row>
-    <row r="435" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="6">
         <v>434</v>
       </c>
@@ -44512,7 +44520,7 @@
       <c r="Y435" s="13"/>
       <c r="AA435" s="13"/>
     </row>
-    <row r="436" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="6">
         <v>435</v>
       </c>
@@ -44546,7 +44554,7 @@
       <c r="Y436" s="13"/>
       <c r="AA436" s="13"/>
     </row>
-    <row r="437" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="6">
         <v>436</v>
       </c>
@@ -44580,7 +44588,7 @@
       <c r="Y437" s="13"/>
       <c r="AA437" s="13"/>
     </row>
-    <row r="438" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="6">
         <v>437</v>
       </c>
@@ -44614,7 +44622,7 @@
       <c r="Y438" s="13"/>
       <c r="AA438" s="13"/>
     </row>
-    <row r="439" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="6">
         <v>438</v>
       </c>
@@ -44648,7 +44656,7 @@
       <c r="Y439" s="13"/>
       <c r="AA439" s="13"/>
     </row>
-    <row r="440" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="6">
         <v>439</v>
       </c>
@@ -44682,7 +44690,7 @@
       <c r="Y440" s="13"/>
       <c r="AA440" s="13"/>
     </row>
-    <row r="441" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="6">
         <v>440</v>
       </c>
@@ -44716,7 +44724,7 @@
       <c r="Y441" s="13"/>
       <c r="AA441" s="13"/>
     </row>
-    <row r="442" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="6">
         <v>441</v>
       </c>
@@ -44750,7 +44758,7 @@
       <c r="Y442" s="13"/>
       <c r="AA442" s="13"/>
     </row>
-    <row r="443" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="6">
         <v>442</v>
       </c>
@@ -44784,7 +44792,7 @@
       <c r="Y443" s="13"/>
       <c r="AA443" s="13"/>
     </row>
-    <row r="444" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="6">
         <v>443</v>
       </c>
@@ -44818,7 +44826,7 @@
       <c r="Y444" s="13"/>
       <c r="AA444" s="13"/>
     </row>
-    <row r="445" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="6">
         <v>444</v>
       </c>
@@ -44852,7 +44860,7 @@
       <c r="Y445" s="13"/>
       <c r="AA445" s="13"/>
     </row>
-    <row r="446" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="6">
         <v>445</v>
       </c>
@@ -44886,7 +44894,7 @@
       <c r="Y446" s="13"/>
       <c r="AA446" s="13"/>
     </row>
-    <row r="447" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="6">
         <v>446</v>
       </c>
@@ -44920,7 +44928,7 @@
       <c r="Y447" s="13"/>
       <c r="AA447" s="13"/>
     </row>
-    <row r="448" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="6">
         <v>447</v>
       </c>
@@ -44952,7 +44960,7 @@
       <c r="Y448" s="13"/>
       <c r="AA448" s="13"/>
     </row>
-    <row r="449" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="6">
         <v>448</v>
       </c>
@@ -44984,7 +44992,7 @@
       <c r="Y449" s="13"/>
       <c r="AA449" s="13"/>
     </row>
-    <row r="450" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="6">
         <v>449</v>
       </c>
@@ -45016,7 +45024,7 @@
       <c r="Y450" s="13"/>
       <c r="AA450" s="13"/>
     </row>
-    <row r="451" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="6">
         <v>450</v>
       </c>
@@ -45048,7 +45056,7 @@
       <c r="Y451" s="13"/>
       <c r="AA451" s="13"/>
     </row>
-    <row r="452" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="6">
         <v>451</v>
       </c>
@@ -45080,7 +45088,7 @@
       <c r="Y452" s="13"/>
       <c r="AA452" s="13"/>
     </row>
-    <row r="453" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="6">
         <v>452</v>
       </c>
@@ -45112,7 +45120,7 @@
       <c r="Y453" s="13"/>
       <c r="AA453" s="13"/>
     </row>
-    <row r="454" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="6">
         <v>453</v>
       </c>
@@ -45144,7 +45152,7 @@
       <c r="Y454" s="13"/>
       <c r="AA454" s="13"/>
     </row>
-    <row r="455" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="6">
         <v>454</v>
       </c>
@@ -45176,7 +45184,7 @@
       <c r="Y455" s="13"/>
       <c r="AA455" s="13"/>
     </row>
-    <row r="456" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="6">
         <v>455</v>
       </c>
@@ -45208,7 +45216,7 @@
       <c r="Y456" s="13"/>
       <c r="AA456" s="13"/>
     </row>
-    <row r="457" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="6">
         <v>456</v>
       </c>
@@ -45240,7 +45248,7 @@
       <c r="Y457" s="13"/>
       <c r="AA457" s="13"/>
     </row>
-    <row r="458" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="6">
         <v>457</v>
       </c>
@@ -45272,7 +45280,7 @@
       <c r="Y458" s="13"/>
       <c r="AA458" s="13"/>
     </row>
-    <row r="459" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="6">
         <v>458</v>
       </c>
@@ -45304,7 +45312,7 @@
       <c r="Y459" s="13"/>
       <c r="AA459" s="13"/>
     </row>
-    <row r="460" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="6">
         <v>459</v>
       </c>
@@ -45336,7 +45344,7 @@
       <c r="Y460" s="13"/>
       <c r="AA460" s="13"/>
     </row>
-    <row r="461" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="6">
         <v>460</v>
       </c>
@@ -45368,7 +45376,7 @@
       <c r="Y461" s="13"/>
       <c r="AA461" s="13"/>
     </row>
-    <row r="462" spans="1:27" ht="144" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="6">
         <v>461</v>
       </c>
@@ -45400,7 +45408,7 @@
       <c r="Y462" s="13"/>
       <c r="AA462" s="13"/>
     </row>
-    <row r="463" spans="1:27" ht="108" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="6">
         <v>462</v>
       </c>
@@ -45432,7 +45440,7 @@
       <c r="Y463" s="13"/>
       <c r="AA463" s="13"/>
     </row>
-    <row r="464" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="6">
         <v>463</v>
       </c>
@@ -45464,7 +45472,7 @@
       <c r="Y464" s="13"/>
       <c r="AA464" s="13"/>
     </row>
-    <row r="465" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="6">
         <v>464</v>
       </c>
@@ -45496,7 +45504,7 @@
       <c r="Y465" s="13"/>
       <c r="AA465" s="13"/>
     </row>
-    <row r="466" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="6">
         <v>465</v>
       </c>
@@ -45528,7 +45536,7 @@
       <c r="Y466" s="13"/>
       <c r="AA466" s="13"/>
     </row>
-    <row r="467" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="6">
         <v>466</v>
       </c>
@@ -45560,7 +45568,7 @@
       <c r="Y467" s="13"/>
       <c r="AA467" s="13"/>
     </row>
-    <row r="468" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="6">
         <v>467</v>
       </c>
@@ -45592,7 +45600,7 @@
       <c r="Y468" s="13"/>
       <c r="AA468" s="13"/>
     </row>
-    <row r="469" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="6">
         <v>468</v>
       </c>
@@ -45624,7 +45632,7 @@
       <c r="Y469" s="13"/>
       <c r="AA469" s="13"/>
     </row>
-    <row r="470" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="6">
         <v>469</v>
       </c>
@@ -45656,7 +45664,7 @@
       <c r="Y470" s="13"/>
       <c r="AA470" s="13"/>
     </row>
-    <row r="471" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="6">
         <v>470</v>
       </c>
@@ -45688,7 +45696,7 @@
       <c r="Y471" s="13"/>
       <c r="AA471" s="13"/>
     </row>
-    <row r="472" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="6">
         <v>471</v>
       </c>
@@ -45720,7 +45728,7 @@
       <c r="Y472" s="13"/>
       <c r="AA472" s="13"/>
     </row>
-    <row r="473" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="6">
         <v>472</v>
       </c>
@@ -45752,7 +45760,7 @@
       <c r="Y473" s="13"/>
       <c r="AA473" s="13"/>
     </row>
-    <row r="474" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="6">
         <v>473</v>
       </c>
@@ -45782,7 +45790,7 @@
       <c r="Y474" s="13"/>
       <c r="AA474" s="13"/>
     </row>
-    <row r="475" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="6">
         <v>474</v>
       </c>
@@ -45812,7 +45820,7 @@
       <c r="Y475" s="13"/>
       <c r="AA475" s="13"/>
     </row>
-    <row r="476" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="6">
         <v>475</v>
       </c>
@@ -45842,7 +45850,7 @@
       <c r="Y476" s="13"/>
       <c r="AA476" s="13"/>
     </row>
-    <row r="477" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="6">
         <v>476</v>
       </c>
@@ -45872,7 +45880,7 @@
       <c r="Y477" s="13"/>
       <c r="AA477" s="13"/>
     </row>
-    <row r="478" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="6">
         <v>477</v>
       </c>
@@ -45894,7 +45902,7 @@
       <c r="Y478" s="13"/>
       <c r="AA478" s="13"/>
     </row>
-    <row r="479" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="6">
         <v>478</v>
       </c>
@@ -45916,7 +45924,7 @@
       <c r="Y479" s="13"/>
       <c r="AA479" s="13"/>
     </row>
-    <row r="480" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="6">
         <v>479</v>
       </c>
@@ -45938,7 +45946,7 @@
       <c r="Y480" s="13"/>
       <c r="AA480" s="13"/>
     </row>
-    <row r="481" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="6">
         <v>480</v>
       </c>
@@ -45960,7 +45968,7 @@
       <c r="Y481" s="13"/>
       <c r="AA481" s="13"/>
     </row>
-    <row r="482" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="6">
         <v>481</v>
       </c>
@@ -45982,7 +45990,7 @@
       <c r="Y482" s="13"/>
       <c r="AA482" s="13"/>
     </row>
-    <row r="483" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="6">
         <v>482</v>
       </c>
@@ -46004,7 +46012,7 @@
       <c r="Y483" s="13"/>
       <c r="AA483" s="13"/>
     </row>
-    <row r="484" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="6">
         <v>483</v>
       </c>
@@ -46026,7 +46034,7 @@
       <c r="Y484" s="13"/>
       <c r="AA484" s="13"/>
     </row>
-    <row r="485" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="6">
         <v>484</v>
       </c>
@@ -46048,7 +46056,7 @@
       <c r="Y485" s="13"/>
       <c r="AA485" s="13"/>
     </row>
-    <row r="486" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="6">
         <v>485</v>
       </c>
@@ -46070,7 +46078,7 @@
       <c r="Y486" s="13"/>
       <c r="AA486" s="13"/>
     </row>
-    <row r="487" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="6">
         <v>486</v>
       </c>
@@ -46092,7 +46100,7 @@
       <c r="Y487" s="13"/>
       <c r="AA487" s="13"/>
     </row>
-    <row r="488" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="6">
         <v>487</v>
       </c>
@@ -46114,7 +46122,7 @@
       <c r="Y488" s="13"/>
       <c r="AA488" s="13"/>
     </row>
-    <row r="489" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="6">
         <v>488</v>
       </c>
@@ -46138,7 +46146,7 @@
       <c r="AB489" s="13"/>
       <c r="AC489" s="37"/>
     </row>
-    <row r="490" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="6">
         <v>489</v>
       </c>
@@ -46162,7 +46170,7 @@
       <c r="AB490" s="13"/>
       <c r="AC490" s="37"/>
     </row>
-    <row r="491" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="6">
         <v>490</v>
       </c>
@@ -46186,7 +46194,7 @@
       <c r="AB491" s="13"/>
       <c r="AC491" s="37"/>
     </row>
-    <row r="492" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="6">
         <v>491</v>
       </c>
@@ -46210,7 +46218,7 @@
       <c r="AB492" s="13"/>
       <c r="AC492" s="37"/>
     </row>
-    <row r="493" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="6">
         <v>492</v>
       </c>
@@ -46234,7 +46242,7 @@
       <c r="AB493" s="13"/>
       <c r="AC493" s="37"/>
     </row>
-    <row r="494" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="6">
         <v>493</v>
       </c>
@@ -46258,7 +46266,7 @@
       <c r="AB494" s="13"/>
       <c r="AC494" s="37"/>
     </row>
-    <row r="495" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="6">
         <v>494</v>
       </c>
@@ -46282,7 +46290,7 @@
       <c r="AB495" s="13"/>
       <c r="AC495" s="37"/>
     </row>
-    <row r="496" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="6">
         <v>495</v>
       </c>
@@ -46306,7 +46314,7 @@
       <c r="AB496" s="13"/>
       <c r="AC496" s="37"/>
     </row>
-    <row r="497" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="6">
         <v>496</v>
       </c>
@@ -46330,7 +46338,7 @@
       <c r="AB497" s="13"/>
       <c r="AC497" s="37"/>
     </row>
-    <row r="498" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="6">
         <v>497</v>
       </c>
@@ -46354,7 +46362,7 @@
       <c r="AB498" s="13"/>
       <c r="AC498" s="37"/>
     </row>
-    <row r="499" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="6">
         <v>498</v>
       </c>
@@ -46378,7 +46386,7 @@
       <c r="AB499" s="13"/>
       <c r="AC499" s="37"/>
     </row>
-    <row r="500" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="6">
         <v>499</v>
       </c>
@@ -46402,7 +46410,7 @@
       <c r="AB500" s="13"/>
       <c r="AC500" s="37"/>
     </row>
-    <row r="501" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="6">
         <v>500</v>
       </c>
@@ -46426,7 +46434,7 @@
       <c r="AB501" s="13"/>
       <c r="AC501" s="37"/>
     </row>
-    <row r="502" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="6">
         <v>501</v>
       </c>
@@ -46450,7 +46458,7 @@
       <c r="AB502" s="13"/>
       <c r="AC502" s="37"/>
     </row>
-    <row r="503" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="6">
         <v>502</v>
       </c>
@@ -46474,7 +46482,7 @@
       <c r="AB503" s="13"/>
       <c r="AC503" s="37"/>
     </row>
-    <row r="504" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="6">
         <v>503</v>
       </c>
@@ -46498,7 +46506,7 @@
       <c r="AB504" s="13"/>
       <c r="AC504" s="37"/>
     </row>
-    <row r="505" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="6">
         <v>504</v>
       </c>
@@ -46522,7 +46530,7 @@
       <c r="AB505" s="13"/>
       <c r="AC505" s="37"/>
     </row>
-    <row r="506" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="6">
         <v>505</v>
       </c>
@@ -46546,7 +46554,7 @@
       <c r="AB506" s="13"/>
       <c r="AC506" s="37"/>
     </row>
-    <row r="507" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="6">
         <v>506</v>
       </c>
@@ -46570,7 +46578,7 @@
       <c r="AB507" s="13"/>
       <c r="AC507" s="37"/>
     </row>
-    <row r="508" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="6">
         <v>507</v>
       </c>
@@ -46594,7 +46602,7 @@
       <c r="AB508" s="13"/>
       <c r="AC508" s="37"/>
     </row>
-    <row r="509" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="6">
         <v>508</v>
       </c>
@@ -46618,7 +46626,7 @@
       <c r="AB509" s="13"/>
       <c r="AC509" s="37"/>
     </row>
-    <row r="510" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="6">
         <v>509</v>
       </c>
@@ -46642,7 +46650,7 @@
       <c r="AB510" s="13"/>
       <c r="AC510" s="37"/>
     </row>
-    <row r="511" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="6">
         <v>510</v>
       </c>
@@ -46666,7 +46674,7 @@
       <c r="AB511" s="13"/>
       <c r="AC511" s="37"/>
     </row>
-    <row r="512" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="6">
         <v>511</v>
       </c>
@@ -46690,7 +46698,7 @@
       <c r="AB512" s="13"/>
       <c r="AC512" s="37"/>
     </row>
-    <row r="513" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="6">
         <v>512</v>
       </c>
@@ -46714,7 +46722,7 @@
       <c r="AB513" s="13"/>
       <c r="AC513" s="37"/>
     </row>
-    <row r="514" spans="1:29" ht="198" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="6">
         <v>513</v>
       </c>
@@ -46738,7 +46746,7 @@
       <c r="AB514" s="13"/>
       <c r="AC514" s="37"/>
     </row>
-    <row r="515" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="6">
         <v>514</v>
       </c>
@@ -46762,7 +46770,7 @@
       <c r="AB515" s="13"/>
       <c r="AC515" s="37"/>
     </row>
-    <row r="516" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="6">
         <v>515</v>
       </c>
@@ -46786,7 +46794,7 @@
       <c r="AB516" s="13"/>
       <c r="AC516" s="37"/>
     </row>
-    <row r="517" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="6">
         <v>516</v>
       </c>
@@ -46810,7 +46818,7 @@
       <c r="AB517" s="13"/>
       <c r="AC517" s="37"/>
     </row>
-    <row r="518" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="6">
         <v>517</v>
       </c>
@@ -46834,7 +46842,7 @@
       <c r="AB518" s="13"/>
       <c r="AC518" s="37"/>
     </row>
-    <row r="519" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="6">
         <v>518</v>
       </c>
@@ -46858,7 +46866,7 @@
       <c r="AB519" s="13"/>
       <c r="AC519" s="37"/>
     </row>
-    <row r="520" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="6">
         <v>519</v>
       </c>
@@ -46882,7 +46890,7 @@
       <c r="AB520" s="13"/>
       <c r="AC520" s="37"/>
     </row>
-    <row r="521" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="6">
         <v>520</v>
       </c>
@@ -46906,7 +46914,7 @@
       <c r="AB521" s="13"/>
       <c r="AC521" s="37"/>
     </row>
-    <row r="522" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="6">
         <v>521</v>
       </c>
@@ -46930,7 +46938,7 @@
       <c r="AB522" s="13"/>
       <c r="AC522" s="37"/>
     </row>
-    <row r="523" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="6">
         <v>522</v>
       </c>
@@ -46954,7 +46962,7 @@
       <c r="AB523" s="13"/>
       <c r="AC523" s="37"/>
     </row>
-    <row r="524" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="6">
         <v>523</v>
       </c>
@@ -46978,7 +46986,7 @@
       <c r="AB524" s="13"/>
       <c r="AC524" s="37"/>
     </row>
-    <row r="525" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="6">
         <v>524</v>
       </c>
@@ -47002,7 +47010,7 @@
       <c r="AB525" s="13"/>
       <c r="AC525" s="37"/>
     </row>
-    <row r="526" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="6">
         <v>525</v>
       </c>
@@ -47026,7 +47034,7 @@
       <c r="AB526" s="13"/>
       <c r="AC526" s="37"/>
     </row>
-    <row r="527" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="6">
         <v>526</v>
       </c>
@@ -47050,7 +47058,7 @@
       <c r="AB527" s="13"/>
       <c r="AC527" s="37"/>
     </row>
-    <row r="528" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="6">
         <v>527</v>
       </c>
@@ -47074,7 +47082,7 @@
       <c r="AB528" s="13"/>
       <c r="AC528" s="37"/>
     </row>
-    <row r="529" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="6">
         <v>528</v>
       </c>
@@ -47098,7 +47106,7 @@
       <c r="AB529" s="13"/>
       <c r="AC529" s="37"/>
     </row>
-    <row r="530" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="6">
         <v>529</v>
       </c>
@@ -47122,7 +47130,7 @@
       <c r="AB530" s="13"/>
       <c r="AC530" s="37"/>
     </row>
-    <row r="531" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="6">
         <v>530</v>
       </c>
@@ -47146,7 +47154,7 @@
       <c r="AB531" s="13"/>
       <c r="AC531" s="37"/>
     </row>
-    <row r="532" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="6">
         <v>531</v>
       </c>
@@ -47170,7 +47178,7 @@
       <c r="AB532" s="13"/>
       <c r="AC532" s="37"/>
     </row>
-    <row r="533" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="6">
         <v>532</v>
       </c>
@@ -47194,7 +47202,7 @@
       <c r="AB533" s="13"/>
       <c r="AC533" s="37"/>
     </row>
-    <row r="534" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="6">
         <v>533</v>
       </c>
@@ -47218,7 +47226,7 @@
       <c r="AB534" s="13"/>
       <c r="AC534" s="37"/>
     </row>
-    <row r="535" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="6">
         <v>534</v>
       </c>
@@ -47242,7 +47250,7 @@
       <c r="AB535" s="13"/>
       <c r="AC535" s="37"/>
     </row>
-    <row r="536" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="6">
         <v>535</v>
       </c>
@@ -47266,7 +47274,7 @@
       <c r="AB536" s="13"/>
       <c r="AC536" s="37"/>
     </row>
-    <row r="537" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="6">
         <v>536</v>
       </c>
@@ -47290,7 +47298,7 @@
       <c r="AB537" s="13"/>
       <c r="AC537" s="37"/>
     </row>
-    <row r="538" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="6">
         <v>537</v>
       </c>
@@ -47314,7 +47322,7 @@
       <c r="AB538" s="13"/>
       <c r="AC538" s="37"/>
     </row>
-    <row r="539" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="6">
         <v>538</v>
       </c>
@@ -47338,7 +47346,7 @@
       <c r="AB539" s="13"/>
       <c r="AC539" s="37"/>
     </row>
-    <row r="540" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="6">
         <v>539</v>
       </c>
@@ -47362,7 +47370,7 @@
       <c r="AB540" s="13"/>
       <c r="AC540" s="37"/>
     </row>
-    <row r="541" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="6">
         <v>540</v>
       </c>
@@ -47386,7 +47394,7 @@
       <c r="AB541" s="13"/>
       <c r="AC541" s="37"/>
     </row>
-    <row r="542" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="6">
         <v>541</v>
       </c>
@@ -47410,7 +47418,7 @@
       <c r="AB542" s="13"/>
       <c r="AC542" s="37"/>
     </row>
-    <row r="543" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="6">
         <v>542</v>
       </c>
@@ -47434,7 +47442,7 @@
       <c r="AB543" s="13"/>
       <c r="AC543" s="37"/>
     </row>
-    <row r="544" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="6">
         <v>543</v>
       </c>
@@ -47458,7 +47466,7 @@
       <c r="AB544" s="13"/>
       <c r="AC544" s="37"/>
     </row>
-    <row r="545" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="6">
         <v>544</v>
       </c>
@@ -47482,7 +47490,7 @@
       <c r="AB545" s="13"/>
       <c r="AC545" s="37"/>
     </row>
-    <row r="546" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="6">
         <v>545</v>
       </c>
@@ -47506,7 +47514,7 @@
       <c r="AB546" s="13"/>
       <c r="AC546" s="37"/>
     </row>
-    <row r="547" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="6">
         <v>546</v>
       </c>
@@ -47530,7 +47538,7 @@
       <c r="AB547" s="13"/>
       <c r="AC547" s="37"/>
     </row>
-    <row r="548" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="6">
         <v>547</v>
       </c>
@@ -47554,7 +47562,7 @@
       <c r="AB548" s="13"/>
       <c r="AC548" s="37"/>
     </row>
-    <row r="549" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="6">
         <v>548</v>
       </c>
@@ -47578,7 +47586,7 @@
       <c r="AB549" s="13"/>
       <c r="AC549" s="37"/>
     </row>
-    <row r="550" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="6">
         <v>549</v>
       </c>
@@ -47602,7 +47610,7 @@
       <c r="AB550" s="13"/>
       <c r="AC550" s="37"/>
     </row>
-    <row r="551" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="6">
         <v>550</v>
       </c>
@@ -47626,7 +47634,7 @@
       <c r="AB551" s="13"/>
       <c r="AC551" s="37"/>
     </row>
-    <row r="552" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="6">
         <v>551</v>
       </c>
@@ -47650,7 +47658,7 @@
       <c r="AB552" s="13"/>
       <c r="AC552" s="37"/>
     </row>
-    <row r="553" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="6">
         <v>552</v>
       </c>
@@ -47674,7 +47682,7 @@
       <c r="AB553" s="13"/>
       <c r="AC553" s="37"/>
     </row>
-    <row r="554" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="6">
         <v>553</v>
       </c>
@@ -47698,7 +47706,7 @@
       <c r="AB554" s="13"/>
       <c r="AC554" s="37"/>
     </row>
-    <row r="555" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="6">
         <v>554</v>
       </c>
@@ -47722,7 +47730,7 @@
       <c r="AB555" s="13"/>
       <c r="AC555" s="37"/>
     </row>
-    <row r="556" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="6">
         <v>555</v>
       </c>
@@ -47746,7 +47754,7 @@
       <c r="AB556" s="13"/>
       <c r="AC556" s="37"/>
     </row>
-    <row r="557" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="6">
         <v>556</v>
       </c>
@@ -47770,7 +47778,7 @@
       <c r="AB557" s="13"/>
       <c r="AC557" s="37"/>
     </row>
-    <row r="558" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="6">
         <v>557</v>
       </c>
@@ -47794,7 +47802,7 @@
       <c r="AB558" s="13"/>
       <c r="AC558" s="37"/>
     </row>
-    <row r="559" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="6">
         <v>558</v>
       </c>
@@ -47818,7 +47826,7 @@
       <c r="AB559" s="13"/>
       <c r="AC559" s="37"/>
     </row>
-    <row r="560" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="6">
         <v>559</v>
       </c>
@@ -47842,7 +47850,7 @@
       <c r="AB560" s="13"/>
       <c r="AC560" s="37"/>
     </row>
-    <row r="561" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="6">
         <v>560</v>
       </c>
@@ -47866,7 +47874,7 @@
       <c r="AB561" s="13"/>
       <c r="AC561" s="37"/>
     </row>
-    <row r="562" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="6">
         <v>561</v>
       </c>
@@ -47890,7 +47898,7 @@
       <c r="AB562" s="13"/>
       <c r="AC562" s="37"/>
     </row>
-    <row r="563" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="6">
         <v>562</v>
       </c>
@@ -47914,7 +47922,7 @@
       <c r="AB563" s="13"/>
       <c r="AC563" s="37"/>
     </row>
-    <row r="564" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="6">
         <v>563</v>
       </c>
@@ -47936,7 +47944,7 @@
       <c r="AB564" s="13"/>
       <c r="AC564" s="37"/>
     </row>
-    <row r="565" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="6">
         <v>564</v>
       </c>
@@ -47958,7 +47966,7 @@
       <c r="AB565" s="13"/>
       <c r="AC565" s="37"/>
     </row>
-    <row r="566" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="6">
         <v>565</v>
       </c>
@@ -47980,7 +47988,7 @@
       <c r="AB566" s="13"/>
       <c r="AC566" s="37"/>
     </row>
-    <row r="567" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="6">
         <v>566</v>
       </c>
@@ -48002,7 +48010,7 @@
       <c r="AB567" s="13"/>
       <c r="AC567" s="37"/>
     </row>
-    <row r="568" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="6">
         <v>567</v>
       </c>
@@ -48024,7 +48032,7 @@
       <c r="AB568" s="13"/>
       <c r="AC568" s="37"/>
     </row>
-    <row r="569" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="6">
         <v>568</v>
       </c>
@@ -48046,7 +48054,7 @@
       <c r="AB569" s="13"/>
       <c r="AC569" s="37"/>
     </row>
-    <row r="570" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="6">
         <v>569</v>
       </c>
@@ -48068,7 +48076,7 @@
       <c r="AB570" s="13"/>
       <c r="AC570" s="37"/>
     </row>
-    <row r="571" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="6">
         <v>570</v>
       </c>
@@ -48090,7 +48098,7 @@
       <c r="AB571" s="13"/>
       <c r="AC571" s="37"/>
     </row>
-    <row r="572" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="6">
         <v>571</v>
       </c>
@@ -48112,7 +48120,7 @@
       <c r="AB572" s="13"/>
       <c r="AC572" s="37"/>
     </row>
-    <row r="573" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="6">
         <v>572</v>
       </c>
@@ -48134,7 +48142,7 @@
       <c r="AB573" s="13"/>
       <c r="AC573" s="37"/>
     </row>
-    <row r="574" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="6">
         <v>573</v>
       </c>
@@ -48156,7 +48164,7 @@
       <c r="AB574" s="13"/>
       <c r="AC574" s="37"/>
     </row>
-    <row r="575" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="6">
         <v>574</v>
       </c>
@@ -48178,7 +48186,7 @@
       <c r="AB575" s="13"/>
       <c r="AC575" s="37"/>
     </row>
-    <row r="576" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="6">
         <v>575</v>
       </c>
@@ -48200,7 +48208,7 @@
       <c r="AB576" s="13"/>
       <c r="AC576" s="37"/>
     </row>
-    <row r="577" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="6">
         <v>576</v>
       </c>
@@ -48222,7 +48230,7 @@
       <c r="AB577" s="13"/>
       <c r="AC577" s="37"/>
     </row>
-    <row r="578" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="6">
         <v>577</v>
       </c>
@@ -48244,7 +48252,7 @@
       <c r="AB578" s="13"/>
       <c r="AC578" s="37"/>
     </row>
-    <row r="579" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="6">
         <v>578</v>
       </c>
@@ -48266,7 +48274,7 @@
       <c r="AB579" s="13"/>
       <c r="AC579" s="37"/>
     </row>
-    <row r="580" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="6">
         <v>579</v>
       </c>
@@ -48288,7 +48296,7 @@
       <c r="AB580" s="13"/>
       <c r="AC580" s="37"/>
     </row>
-    <row r="581" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="6">
         <v>580</v>
       </c>
@@ -48310,7 +48318,7 @@
       <c r="AB581" s="13"/>
       <c r="AC581" s="37"/>
     </row>
-    <row r="582" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="6">
         <v>581</v>
       </c>
@@ -48332,7 +48340,7 @@
       <c r="AB582" s="13"/>
       <c r="AC582" s="37"/>
     </row>
-    <row r="583" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="6">
         <v>582</v>
       </c>
@@ -48354,7 +48362,7 @@
       <c r="AB583" s="13"/>
       <c r="AC583" s="37"/>
     </row>
-    <row r="584" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="6">
         <v>583</v>
       </c>
@@ -48376,7 +48384,7 @@
       <c r="AB584" s="13"/>
       <c r="AC584" s="37"/>
     </row>
-    <row r="585" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="6">
         <v>584</v>
       </c>
@@ -48398,7 +48406,7 @@
       <c r="AB585" s="13"/>
       <c r="AC585" s="37"/>
     </row>
-    <row r="586" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="6">
         <v>585</v>
       </c>
@@ -48420,7 +48428,7 @@
       <c r="AB586" s="13"/>
       <c r="AC586" s="37"/>
     </row>
-    <row r="587" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="6">
         <v>586</v>
       </c>
@@ -48442,7 +48450,7 @@
       <c r="AB587" s="13"/>
       <c r="AC587" s="37"/>
     </row>
-    <row r="588" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="6">
         <v>587</v>
       </c>
@@ -48464,7 +48472,7 @@
       <c r="AB588" s="13"/>
       <c r="AC588" s="37"/>
     </row>
-    <row r="589" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="6">
         <v>588</v>
       </c>
@@ -48486,7 +48494,7 @@
       <c r="AB589" s="13"/>
       <c r="AC589" s="37"/>
     </row>
-    <row r="590" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="6">
         <v>589</v>
       </c>
@@ -48508,7 +48516,7 @@
       <c r="AB590" s="13"/>
       <c r="AC590" s="37"/>
     </row>
-    <row r="591" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="6">
         <v>590</v>
       </c>
@@ -48530,7 +48538,7 @@
       <c r="AB591" s="13"/>
       <c r="AC591" s="37"/>
     </row>
-    <row r="592" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="6">
         <v>591</v>
       </c>
@@ -48552,7 +48560,7 @@
       <c r="AB592" s="13"/>
       <c r="AC592" s="37"/>
     </row>
-    <row r="593" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="6">
         <v>592</v>
       </c>
@@ -48574,7 +48582,7 @@
       <c r="AB593" s="13"/>
       <c r="AC593" s="37"/>
     </row>
-    <row r="594" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="6">
         <v>593</v>
       </c>
@@ -48596,7 +48604,7 @@
       <c r="AB594" s="13"/>
       <c r="AC594" s="37"/>
     </row>
-    <row r="595" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="6">
         <v>594</v>
       </c>
@@ -48618,7 +48626,7 @@
       <c r="AB595" s="13"/>
       <c r="AC595" s="37"/>
     </row>
-    <row r="596" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="6">
         <v>595</v>
       </c>
@@ -48640,7 +48648,7 @@
       <c r="AB596" s="13"/>
       <c r="AC596" s="37"/>
     </row>
-    <row r="597" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="6">
         <v>596</v>
       </c>
@@ -48662,7 +48670,7 @@
       <c r="AB597" s="13"/>
       <c r="AC597" s="37"/>
     </row>
-    <row r="598" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="6">
         <v>597</v>
       </c>
@@ -48684,7 +48692,7 @@
       <c r="AB598" s="13"/>
       <c r="AC598" s="37"/>
     </row>
-    <row r="599" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="6">
         <v>598</v>
       </c>
@@ -48706,7 +48714,7 @@
       <c r="AB599" s="13"/>
       <c r="AC599" s="37"/>
     </row>
-    <row r="600" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="6">
         <v>599</v>
       </c>
@@ -48728,7 +48736,7 @@
       <c r="AB600" s="13"/>
       <c r="AC600" s="37"/>
     </row>
-    <row r="601" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="6">
         <v>600</v>
       </c>
@@ -48750,7 +48758,7 @@
       <c r="AB601" s="13"/>
       <c r="AC601" s="37"/>
     </row>
-    <row r="602" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="6">
         <v>601</v>
       </c>
@@ -48772,7 +48780,7 @@
       <c r="AB602" s="13"/>
       <c r="AC602" s="37"/>
     </row>
-    <row r="603" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="6">
         <v>602</v>
       </c>
